--- a/data/rb.xlsx
+++ b/data/rb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="raid1_start_rb" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,195 +64,203 @@
     <t>Offline</t>
   </si>
   <si>
+    <t>pd 3 is offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 0 -s 1 -p 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb should start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd 2 is offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 0 -s 2 -p 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd 3 is offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 0 -s 2 -p 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 0 -s 2 -p 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PdId</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>rb -a stop -l 0 -s 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This background activity is not running</t>
+  </si>
+  <si>
+    <t>rb test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop -l 0 -s 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 10 -s 2 -p 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop -l 10 -s 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool id=[10] is not existed</t>
+  </si>
+  <si>
+    <t>Invalid phydrv sequence number</t>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+  </si>
+  <si>
+    <t>rb -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 0 -s 2 -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop -l 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop -l 0 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 0 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb should start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb process should be displaied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb process should be stoped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 0 -s 256 -p 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a start -l 32 -s 2 -p 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb -a stop -l 32 -s 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Invalid option for the command or the action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pd 3 is offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 0 -s 1 -p 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb should start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd 2 is offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Running</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 0 -s 2 -p 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd 3 is offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 0 -s 2 -p 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 0 -s 2 -p 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb process should be displaied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PdId</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>rb -a stop -l 0 -s 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb process should be stoped</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This background activity is not running</t>
-  </si>
-  <si>
-    <t>rb test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 0 -s 100 -p 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 100 -s 2 -p 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop -l 100 -s 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop -l 0 -s 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 10 -s 2 -p 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop -l 10 -s 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pool id=[10] is not existed</t>
-  </si>
-  <si>
-    <t>Invalid phydrv sequence number</t>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-  </si>
-  <si>
-    <t>rb -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 0 -s 2 -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop -l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop -l 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a stop -l 0 -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb -a start -l 0 -s</t>
+    <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +611,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,13 +640,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -646,19 +654,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +681,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,15 +700,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -708,7 +716,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -716,7 +724,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -733,7 +741,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -752,15 +760,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -768,7 +776,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -776,7 +784,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -784,7 +792,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -792,7 +800,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -800,7 +808,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -808,7 +816,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -816,7 +824,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -833,7 +841,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,13 +870,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -876,19 +884,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +911,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,13 +940,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -946,19 +954,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +981,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1002,13 +1010,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1016,19 +1024,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1051,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,13 +1080,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1086,19 +1094,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1121,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,13 +1150,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1156,19 +1164,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1191,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,19 +1223,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1250,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1271,16 +1279,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1303,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1315,7 +1323,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1323,7 +1331,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1331,7 +1339,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1339,15 +1347,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1355,15 +1363,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1371,26 +1379,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/rb.xlsx
+++ b/data/rb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="raid1_start_rb" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +682,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -687,46 +691,61 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="2" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -738,95 +757,125 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1300,104 +1349,137 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
     </row>
